--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\Hackatone_10_2024_SF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67307D4E-2F1B-4193-A27C-DB35AA97BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E061E29-C98D-4D29-929E-2B401D5F3E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Города" sheetId="1" r:id="rId1"/>
-    <sheet name="Уроки" sheetId="2" r:id="rId2"/>
+    <sheet name="Уроки" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Уникальные пользователи" sheetId="5" r:id="rId3"/>
-    <sheet name="Уникальные пользователи (2)" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Уроки (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="Уникальные пользователи (2)" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6737" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6746" uniqueCount="1585">
   <si>
     <t>Местоположение</t>
   </si>
@@ -4763,6 +4764,21 @@
   </si>
   <si>
     <t>Время на курсе (завершённые уроки, модуль)</t>
+  </si>
+  <si>
+    <t>Средняя время на уроке</t>
+  </si>
+  <si>
+    <t>Медианное время на уроке</t>
+  </si>
+  <si>
+    <t>Медианное время теста</t>
+  </si>
+  <si>
+    <t>Средняя оценка за тест</t>
+  </si>
+  <si>
+    <t>Медианная оценка за тест</t>
   </si>
 </sst>
 </file>
@@ -5126,7 +5142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5185,6 +5201,24 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6546,9 +6580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5DF223-9BA3-435E-AA14-D7B15A3E64D8}">
   <dimension ref="A1:X656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M116" sqref="M116"/>
+      <selection pane="bottomLeft" activeCell="S129" sqref="S129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55127,6 +55161,491 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E24A6D-DB1D-40EA-BA01-916321FB118B}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>16393.878160919539</v>
+      </c>
+      <c r="C2" s="16">
+        <v>181</v>
+      </c>
+      <c r="D2" s="16">
+        <v>214.16551724137929</v>
+      </c>
+      <c r="E2" s="16">
+        <v>34</v>
+      </c>
+      <c r="F2" s="16">
+        <v>8.7729083665338639</v>
+      </c>
+      <c r="G2" s="16">
+        <v>9</v>
+      </c>
+      <c r="H2" s="16">
+        <v>239</v>
+      </c>
+      <c r="I2" s="17">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>246.3441860465116</v>
+      </c>
+      <c r="C3" s="6">
+        <v>376</v>
+      </c>
+      <c r="D3" s="6">
+        <v>340.44186046511629</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8.6914285714285722</v>
+      </c>
+      <c r="G3" s="6">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6">
+        <v>158</v>
+      </c>
+      <c r="I3" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4380.0200000000004</v>
+      </c>
+      <c r="C4" s="6">
+        <v>406</v>
+      </c>
+      <c r="D4" s="6">
+        <v>76.446666666666673</v>
+      </c>
+      <c r="E4" s="6">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6">
+        <v>8.7591240875912408</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>116</v>
+      </c>
+      <c r="I4" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>849.31967213114751</v>
+      </c>
+      <c r="C5" s="6">
+        <v>375</v>
+      </c>
+      <c r="D5" s="6">
+        <v>663.14754098360652</v>
+      </c>
+      <c r="E5" s="6">
+        <v>42.5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8.8421052631578956</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6">
+        <v>94</v>
+      </c>
+      <c r="I5" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-4371.9809523809527</v>
+      </c>
+      <c r="C6" s="6">
+        <v>275</v>
+      </c>
+      <c r="D6" s="6">
+        <v>299.60952380952381</v>
+      </c>
+      <c r="E6" s="6">
+        <v>57</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8.764705882352942</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>80</v>
+      </c>
+      <c r="I6" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4217.18</v>
+      </c>
+      <c r="C7" s="6">
+        <v>284.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>316.14999999999998</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8.7857142857142865</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6">
+        <v>74</v>
+      </c>
+      <c r="I7" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>7481.5494505494507</v>
+      </c>
+      <c r="C8" s="6">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6">
+        <v>968.25274725274721</v>
+      </c>
+      <c r="E8" s="6">
+        <v>53</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.9333333333333336</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6">
+        <v>65</v>
+      </c>
+      <c r="I8" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7915.3055555555557</v>
+      </c>
+      <c r="C9" s="6">
+        <v>246.5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>344.54166666666669</v>
+      </c>
+      <c r="E9" s="6">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6.921875</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <v>47</v>
+      </c>
+      <c r="I9" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>88323.644067796617</v>
+      </c>
+      <c r="C10" s="6">
+        <v>360</v>
+      </c>
+      <c r="D10" s="6">
+        <v>128.13559322033899</v>
+      </c>
+      <c r="E10" s="6">
+        <v>80</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7.9482758620689653</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>424.35087719298252</v>
+      </c>
+      <c r="C11" s="6">
+        <v>336</v>
+      </c>
+      <c r="D11" s="6">
+        <v>138.63157894736841</v>
+      </c>
+      <c r="E11" s="6">
+        <v>78</v>
+      </c>
+      <c r="F11" s="6">
+        <v>7.3035714285714288</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>38</v>
+      </c>
+      <c r="I11" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>469.67272727272729</v>
+      </c>
+      <c r="C12" s="6">
+        <v>167</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1355.3272727272731</v>
+      </c>
+      <c r="E12" s="6">
+        <v>82</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7.384615384615385</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>37</v>
+      </c>
+      <c r="I12" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7436.75</v>
+      </c>
+      <c r="C13" s="6">
+        <v>200</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1613.25</v>
+      </c>
+      <c r="E13" s="6">
+        <v>75</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="G13" s="6">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>264.42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>95.5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="E14" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7.791666666666667</v>
+      </c>
+      <c r="G14" s="6">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6">
+        <v>31</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5470.645833333333</v>
+      </c>
+      <c r="C15" s="6">
+        <v>192</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1257.583333333333</v>
+      </c>
+      <c r="E15" s="6">
+        <v>87.5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>7.042553191489362</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EABFD2-8966-4C4D-9041-19E5B9B05697}">
   <dimension ref="A1:X665"/>
   <sheetViews>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\Hackatone_10_2024_SF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E061E29-C98D-4D29-929E-2B401D5F3E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329190D-30D4-4679-94B2-71BDBC945AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55165,7 +55165,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55202,11 +55202,11 @@
       <c r="G1" s="34" t="s">
         <v>1584</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
